--- a/day15/msyql_3.xlsx
+++ b/day15/msyql_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="106">
   <si>
     <t>微信用户，朋友圈，点赞评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,12 +418,52 @@
     <t>主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pyq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户，朋友圈，点赞评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我去年去的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +506,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="6" tint="0.39997558519241921"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +530,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,6 +774,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,19 +1109,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.5546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" style="1" customWidth="1"/>
@@ -1036,24 +1131,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1608,12 +1703,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D67" s="20" t="s">
         <v>90</v>
       </c>
@@ -1624,7 +1719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D68" s="22">
         <v>1</v>
       </c>
@@ -1635,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D69" s="22">
         <v>1</v>
       </c>
@@ -1646,7 +1741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D70" s="22">
         <v>2</v>
       </c>
@@ -1655,7 +1750,7 @@
       </c>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D71" s="22">
         <v>2</v>
       </c>
@@ -1664,7 +1759,7 @@
       </c>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D72" s="22">
         <v>3</v>
       </c>
@@ -1673,7 +1768,7 @@
       </c>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D73" s="23">
         <v>4</v>
       </c>
@@ -1682,14 +1777,411 @@
       </c>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D74" s="1" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
+      <c r="I80" s="48"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="48"/>
+      <c r="L80" s="48"/>
+      <c r="M80" s="48"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
+    </row>
+    <row r="81" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="42"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="47">
+        <v>1</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="42"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="47">
+        <v>2</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="42"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="47">
+        <v>3</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="42"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="45">
+        <v>1</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="45">
+        <v>2</v>
+      </c>
+      <c r="B91" s="41"/>
+      <c r="C91" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="41"/>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+    </row>
+    <row r="93" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>1</v>
+      </c>
+      <c r="B95" s="46">
+        <v>2</v>
+      </c>
+      <c r="C95" s="45">
+        <v>1</v>
+      </c>
+      <c r="D95" s="41">
+        <v>1</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>2</v>
+      </c>
+      <c r="B96" s="46">
+        <v>3</v>
+      </c>
+      <c r="C96" s="45">
+        <v>1</v>
+      </c>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>3</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A93:E93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
